--- a/ep/ep/export/flourish/Hungary_name_party.xlsx
+++ b/ep/ep/export/flourish/Hungary_name_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="88">
   <si>
     <t>name1</t>
   </si>
@@ -250,14 +250,41 @@
     <t>LMP</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/hun.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fidesz.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/mszp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/dk.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/egyutt.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/jobbik.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/lmp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +299,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,16 +340,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,6 +723,9 @@
       <c r="C2" t="s">
         <v>70</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E2">
         <v>0.733</v>
       </c>
@@ -712,6 +755,9 @@
       <c r="C3" t="s">
         <v>71</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E3">
         <v>0.614</v>
       </c>
@@ -741,6 +787,9 @@
       <c r="C4" t="s">
         <v>72</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E4">
         <v>0.979</v>
       </c>
@@ -770,6 +819,9 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E5">
         <v>0.981</v>
       </c>
@@ -790,6 +842,9 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O6">
         <v>0.863</v>
       </c>
@@ -819,6 +874,9 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O7">
         <v>0.586</v>
       </c>
@@ -848,6 +906,9 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O8">
         <v>0.991</v>
       </c>
@@ -877,6 +938,9 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O9">
         <v>0.366</v>
       </c>
@@ -906,6 +970,9 @@
       <c r="C10" t="s">
         <v>77</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O10">
         <v>0.578</v>
       </c>
@@ -935,6 +1002,9 @@
       <c r="C11" t="s">
         <v>72</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O11">
         <v>0.824</v>
       </c>
@@ -964,6 +1034,9 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S12">
         <v>0.523</v>
       </c>
@@ -981,6 +1054,9 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O13">
         <v>0.867</v>
       </c>
@@ -1010,6 +1086,9 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O14">
         <v>0.577</v>
       </c>
@@ -1039,6 +1118,9 @@
       <c r="C15" t="s">
         <v>71</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O15">
         <v>0.996</v>
       </c>
@@ -1068,6 +1150,9 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O16">
         <v>0.37</v>
       </c>
@@ -1097,6 +1182,9 @@
       <c r="C17" t="s">
         <v>77</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O17">
         <v>0.569</v>
       </c>
@@ -1126,6 +1214,9 @@
       <c r="C18" t="s">
         <v>72</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O18">
         <v>0.825</v>
       </c>
@@ -1155,6 +1246,9 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S19">
         <v>0.538</v>
       </c>
@@ -1172,6 +1266,9 @@
       <c r="C20" t="s">
         <v>74</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O20">
         <v>0.854</v>
       </c>
@@ -1201,6 +1298,9 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E21">
         <v>0.838</v>
       </c>
@@ -1245,6 +1345,9 @@
       <c r="C22" t="s">
         <v>75</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O22">
         <v>0.586</v>
       </c>
@@ -1274,6 +1377,9 @@
       <c r="C23" t="s">
         <v>71</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E23">
         <v>0.973</v>
       </c>
@@ -1333,6 +1439,9 @@
       <c r="C24" t="s">
         <v>76</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J24">
         <v>0.445</v>
       </c>
@@ -1377,6 +1486,9 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O25">
         <v>0.578</v>
       </c>
@@ -1406,6 +1518,9 @@
       <c r="C26" t="s">
         <v>72</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E26">
         <v>0.618</v>
       </c>
@@ -1465,6 +1580,9 @@
       <c r="C27" t="s">
         <v>73</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E27">
         <v>0.981</v>
       </c>
@@ -1494,6 +1612,9 @@
       <c r="C28" t="s">
         <v>78</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J28">
         <v>0.989</v>
       </c>
@@ -1520,6 +1641,9 @@
       <c r="C29" t="s">
         <v>70</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G29">
         <v>0.878</v>
       </c>
@@ -1543,6 +1667,9 @@
       <c r="C30" t="s">
         <v>71</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G30">
         <v>0.99</v>
       </c>
@@ -1566,6 +1693,9 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G31">
         <v>0.751</v>
       </c>
@@ -1589,6 +1719,9 @@
       <c r="C32" t="s">
         <v>73</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I32">
         <v>0.885</v>
       </c>
@@ -1606,6 +1739,9 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O33">
         <v>0.713</v>
       </c>
@@ -1635,6 +1771,9 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O34">
         <v>1</v>
       </c>
@@ -1664,6 +1803,9 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O35">
         <v>0.577</v>
       </c>
@@ -1693,6 +1835,9 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O36">
         <v>0.572</v>
       </c>
@@ -1722,6 +1867,9 @@
       <c r="C37" t="s">
         <v>77</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O37">
         <v>1</v>
       </c>
@@ -1751,6 +1899,9 @@
       <c r="C38" t="s">
         <v>72</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O38">
         <v>0.74</v>
       </c>
@@ -1780,6 +1931,9 @@
       <c r="C39" t="s">
         <v>73</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S39">
         <v>0.5610000000000001</v>
       </c>
@@ -1797,6 +1951,9 @@
       <c r="C40" t="s">
         <v>70</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E40">
         <v>0.8110000000000001</v>
       </c>
@@ -1841,6 +1998,9 @@
       <c r="C41" t="s">
         <v>71</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E41">
         <v>0.956</v>
       </c>
@@ -1885,6 +2045,9 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J42">
         <v>0.511</v>
       </c>
@@ -1914,6 +2077,9 @@
       <c r="C43" t="s">
         <v>72</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E43">
         <v>0.573</v>
       </c>
@@ -1958,6 +2124,9 @@
       <c r="C44" t="s">
         <v>73</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E44">
         <v>0.981</v>
       </c>
@@ -1981,6 +2150,9 @@
       <c r="C45" t="s">
         <v>78</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J45">
         <v>1</v>
       </c>
@@ -2007,6 +2179,9 @@
       <c r="C46" t="s">
         <v>74</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O46">
         <v>0.409</v>
       </c>
@@ -2036,6 +2211,9 @@
       <c r="C47" t="s">
         <v>70</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K47">
         <v>0.528</v>
       </c>
@@ -2062,6 +2240,9 @@
       <c r="C48" t="s">
         <v>75</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O48">
         <v>0.569</v>
       </c>
@@ -2091,6 +2272,9 @@
       <c r="C49" t="s">
         <v>71</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K49">
         <v>0.535</v>
       </c>
@@ -2132,6 +2316,9 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K50">
         <v>0.979</v>
       </c>
@@ -2173,6 +2360,9 @@
       <c r="C51" t="s">
         <v>77</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O51">
         <v>0.578</v>
       </c>
@@ -2202,6 +2392,9 @@
       <c r="C52" t="s">
         <v>72</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K52">
         <v>0.532</v>
       </c>
@@ -2243,6 +2436,9 @@
       <c r="C53" t="s">
         <v>73</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O53">
         <v>0.436</v>
       </c>
@@ -2263,6 +2459,9 @@
       <c r="C54" t="s">
         <v>78</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K54">
         <v>0.533</v>
       </c>
@@ -2286,6 +2485,9 @@
       <c r="C55" t="s">
         <v>74</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O55">
         <v>1</v>
       </c>
@@ -2315,6 +2517,9 @@
       <c r="C56" t="s">
         <v>75</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O56">
         <v>0.719</v>
       </c>
@@ -2344,6 +2549,9 @@
       <c r="C57" t="s">
         <v>71</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O57">
         <v>0.885</v>
       </c>
@@ -2373,6 +2581,9 @@
       <c r="C58" t="s">
         <v>76</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O58">
         <v>0.406</v>
       </c>
@@ -2402,6 +2613,9 @@
       <c r="C59" t="s">
         <v>77</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O59">
         <v>0.725</v>
       </c>
@@ -2431,6 +2645,9 @@
       <c r="C60" t="s">
         <v>72</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O60">
         <v>0.977</v>
       </c>
@@ -2460,6 +2677,9 @@
       <c r="C61" t="s">
         <v>73</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S61">
         <v>0.503</v>
       </c>
@@ -2477,6 +2697,9 @@
       <c r="C62" t="s">
         <v>70</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E62">
         <v>0.724</v>
       </c>
@@ -2521,6 +2744,9 @@
       <c r="C63" t="s">
         <v>71</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E63">
         <v>0.606</v>
       </c>
@@ -2565,6 +2791,9 @@
       <c r="C64" t="s">
         <v>76</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J64">
         <v>0.432</v>
       </c>
@@ -2594,6 +2823,9 @@
       <c r="C65" t="s">
         <v>72</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E65">
         <v>0.982</v>
       </c>
@@ -2638,6 +2870,9 @@
       <c r="C66" t="s">
         <v>73</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I66">
         <v>0.832</v>
       </c>
@@ -2658,6 +2893,9 @@
       <c r="C67" t="s">
         <v>78</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J67">
         <v>0.667</v>
       </c>
@@ -2684,6 +2922,9 @@
       <c r="C68" t="s">
         <v>70</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E68">
         <v>0.8090000000000001</v>
       </c>
@@ -2728,6 +2969,9 @@
       <c r="C69" t="s">
         <v>71</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E69">
         <v>0.954</v>
       </c>
@@ -2772,6 +3016,9 @@
       <c r="C70" t="s">
         <v>76</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J70">
         <v>0.511</v>
       </c>
@@ -2801,6 +3048,9 @@
       <c r="C71" t="s">
         <v>72</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E71">
         <v>0.581</v>
       </c>
@@ -2845,6 +3095,9 @@
       <c r="C72" t="s">
         <v>73</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E72">
         <v>0.964</v>
       </c>
@@ -2868,6 +3121,9 @@
       <c r="C73" t="s">
         <v>78</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J73">
         <v>0.981</v>
       </c>
@@ -2894,6 +3150,9 @@
       <c r="C74" t="s">
         <v>70</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J74">
         <v>0.474</v>
       </c>
@@ -2923,6 +3182,9 @@
       <c r="C75" t="s">
         <v>71</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J75">
         <v>0.519</v>
       </c>
@@ -2952,6 +3214,9 @@
       <c r="C76" t="s">
         <v>76</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J76">
         <v>1</v>
       </c>
@@ -2981,6 +3246,9 @@
       <c r="C77" t="s">
         <v>72</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J77">
         <v>0.425</v>
       </c>
@@ -3010,6 +3278,9 @@
       <c r="C78" t="s">
         <v>73</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O78">
         <v>0.944</v>
       </c>
@@ -3024,6 +3295,9 @@
       <c r="C79" t="s">
         <v>78</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J79">
         <v>0.364</v>
       </c>
@@ -3050,6 +3324,9 @@
       <c r="C80" t="s">
         <v>70</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E80">
         <v>0.712</v>
       </c>
@@ -3094,6 +3371,9 @@
       <c r="C81" t="s">
         <v>71</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E81">
         <v>0.588</v>
       </c>
@@ -3138,6 +3418,9 @@
       <c r="C82" t="s">
         <v>76</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J82">
         <v>0.416</v>
       </c>
@@ -3167,6 +3450,9 @@
       <c r="C83" t="s">
         <v>72</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E83">
         <v>0.98</v>
       </c>
@@ -3211,6 +3497,9 @@
       <c r="C84" t="s">
         <v>73</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E84">
         <v>0.966</v>
       </c>
@@ -3234,6 +3523,9 @@
       <c r="C85" t="s">
         <v>78</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J85">
         <v>0.654</v>
       </c>
@@ -3260,6 +3552,9 @@
       <c r="C86" t="s">
         <v>70</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J86">
         <v>0.602</v>
       </c>
@@ -3274,6 +3569,9 @@
       <c r="C87" t="s">
         <v>71</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J87">
         <v>0.984</v>
       </c>
@@ -3288,6 +3586,9 @@
       <c r="C88" t="s">
         <v>76</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J88">
         <v>0.5570000000000001</v>
       </c>
@@ -3302,6 +3603,9 @@
       <c r="C89" t="s">
         <v>72</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J89">
         <v>0.655</v>
       </c>
@@ -3316,6 +3620,9 @@
       <c r="C90" t="s">
         <v>78</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J90">
         <v>0.99</v>
       </c>
@@ -3330,6 +3637,9 @@
       <c r="C91" t="s">
         <v>70</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="M91">
         <v>0.655</v>
       </c>
@@ -3350,6 +3660,9 @@
       <c r="C92" t="s">
         <v>71</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="M92">
         <v>0.987</v>
       </c>
@@ -3370,6 +3683,9 @@
       <c r="C93" t="s">
         <v>76</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="M93">
         <v>0.837</v>
       </c>
@@ -3390,6 +3706,9 @@
       <c r="C94" t="s">
         <v>72</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M94">
         <v>0.9</v>
       </c>
@@ -3410,6 +3729,9 @@
       <c r="C95" t="s">
         <v>73</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O95">
         <v>0.98</v>
       </c>
@@ -3424,6 +3746,9 @@
       <c r="C96" t="s">
         <v>78</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M96">
         <v>0.987</v>
       </c>
@@ -3441,6 +3766,9 @@
       <c r="C97" t="s">
         <v>70</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F97">
         <v>0.825</v>
       </c>
@@ -3467,6 +3795,9 @@
       <c r="C98" t="s">
         <v>71</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F98">
         <v>0.979</v>
       </c>
@@ -3493,6 +3824,9 @@
       <c r="C99" t="s">
         <v>72</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F99">
         <v>0.585</v>
       </c>
@@ -3519,6 +3853,9 @@
       <c r="C100" t="s">
         <v>73</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I100">
         <v>0.858</v>
       </c>
@@ -3536,6 +3873,9 @@
       <c r="C101" t="s">
         <v>70</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E101">
         <v>0.745</v>
       </c>
@@ -3565,6 +3905,9 @@
       <c r="C102" t="s">
         <v>71</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E102">
         <v>0.615</v>
       </c>
@@ -3594,6 +3937,9 @@
       <c r="C103" t="s">
         <v>72</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E103">
         <v>0.974</v>
       </c>
@@ -3623,6 +3969,9 @@
       <c r="C104" t="s">
         <v>73</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E104">
         <v>0.976</v>
       </c>
@@ -3643,6 +3992,9 @@
       <c r="C105" t="s">
         <v>74</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O105">
         <v>0.861</v>
       </c>
@@ -3672,6 +4024,9 @@
       <c r="C106" t="s">
         <v>75</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O106">
         <v>0.579</v>
       </c>
@@ -3701,6 +4056,9 @@
       <c r="C107" t="s">
         <v>71</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O107">
         <v>0.986</v>
       </c>
@@ -3730,6 +4088,9 @@
       <c r="C108" t="s">
         <v>76</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O108">
         <v>0.375</v>
       </c>
@@ -3759,6 +4120,9 @@
       <c r="C109" t="s">
         <v>77</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O109">
         <v>0.5649999999999999</v>
       </c>
@@ -3788,6 +4152,9 @@
       <c r="C110" t="s">
         <v>72</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O110">
         <v>0.823</v>
       </c>
@@ -3817,6 +4184,9 @@
       <c r="C111" t="s">
         <v>73</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S111">
         <v>0.525</v>
       </c>
@@ -3834,6 +4204,9 @@
       <c r="C112" t="s">
         <v>74</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O112">
         <v>0.868</v>
       </c>
@@ -3863,6 +4236,9 @@
       <c r="C113" t="s">
         <v>70</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E113">
         <v>0.805</v>
       </c>
@@ -3907,6 +4283,9 @@
       <c r="C114" t="s">
         <v>75</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O114">
         <v>0.585</v>
       </c>
@@ -3936,6 +4315,9 @@
       <c r="C115" t="s">
         <v>71</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E115">
         <v>0.9370000000000001</v>
       </c>
@@ -3995,6 +4377,9 @@
       <c r="C116" t="s">
         <v>76</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J116">
         <v>0.505</v>
       </c>
@@ -4039,6 +4424,9 @@
       <c r="C117" t="s">
         <v>77</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O117">
         <v>0.577</v>
       </c>
@@ -4068,6 +4456,9 @@
       <c r="C118" t="s">
         <v>72</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E118">
         <v>0.5570000000000001</v>
       </c>
@@ -4127,6 +4518,9 @@
       <c r="C119" t="s">
         <v>73</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E119">
         <v>0.946</v>
       </c>
@@ -4156,6 +4550,9 @@
       <c r="C120" t="s">
         <v>78</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J120">
         <v>1</v>
       </c>
@@ -4182,6 +4579,9 @@
       <c r="C121" t="s">
         <v>70</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E121">
         <v>0.958</v>
       </c>
@@ -4196,6 +4596,9 @@
       <c r="C122" t="s">
         <v>71</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E122">
         <v>0.969</v>
       </c>
@@ -4210,6 +4613,9 @@
       <c r="C123" t="s">
         <v>72</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E123">
         <v>0.9350000000000001</v>
       </c>
@@ -4224,6 +4630,9 @@
       <c r="C124" t="s">
         <v>70</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E124">
         <v>0.6919999999999999</v>
       </c>
@@ -4253,6 +4662,9 @@
       <c r="C125" t="s">
         <v>71</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E125">
         <v>0.585</v>
       </c>
@@ -4282,6 +4694,9 @@
       <c r="C126" t="s">
         <v>72</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E126">
         <v>0.978</v>
       </c>
@@ -4311,6 +4726,9 @@
       <c r="C127" t="s">
         <v>73</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I127">
         <v>0.949</v>
       </c>
@@ -4328,6 +4746,9 @@
       <c r="C128" t="s">
         <v>74</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O128">
         <v>0.849</v>
       </c>
@@ -4351,6 +4772,9 @@
       <c r="C129" t="s">
         <v>70</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K129">
         <v>0.642</v>
       </c>
@@ -4377,6 +4801,9 @@
       <c r="C130" t="s">
         <v>75</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O130">
         <v>0.5679999999999999</v>
       </c>
@@ -4400,6 +4827,9 @@
       <c r="C131" t="s">
         <v>71</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K131">
         <v>0.983</v>
       </c>
@@ -4435,6 +4865,9 @@
       <c r="C132" t="s">
         <v>76</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K132">
         <v>0.598</v>
       </c>
@@ -4470,6 +4903,9 @@
       <c r="C133" t="s">
         <v>77</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O133">
         <v>0.5600000000000001</v>
       </c>
@@ -4493,6 +4929,9 @@
       <c r="C134" t="s">
         <v>72</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K134">
         <v>0.726</v>
       </c>
@@ -4528,6 +4967,9 @@
       <c r="C135" t="s">
         <v>73</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O135">
         <v>0.982</v>
       </c>
@@ -4542,6 +4984,9 @@
       <c r="C136" t="s">
         <v>78</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K136">
         <v>0.986</v>
       </c>
@@ -4565,6 +5010,9 @@
       <c r="C137" t="s">
         <v>70</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E137">
         <v>0.829</v>
       </c>
@@ -4579,6 +5027,9 @@
       <c r="C138" t="s">
         <v>71</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E138">
         <v>0.959</v>
       </c>
@@ -4593,6 +5044,9 @@
       <c r="C139" t="s">
         <v>72</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E139">
         <v>0.608</v>
       </c>
@@ -4607,6 +5061,9 @@
       <c r="C140" t="s">
         <v>73</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E140">
         <v>0.963</v>
       </c>
@@ -4621,6 +5078,9 @@
       <c r="C141" t="s">
         <v>70</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E141">
         <v>0.889</v>
       </c>
@@ -4650,6 +5110,9 @@
       <c r="C142" t="s">
         <v>71</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E142">
         <v>0.725</v>
       </c>
@@ -4679,6 +5142,9 @@
       <c r="C143" t="s">
         <v>72</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E143">
         <v>0.773</v>
       </c>
@@ -4708,6 +5174,9 @@
       <c r="C144" t="s">
         <v>73</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E144">
         <v>0.732</v>
       </c>
@@ -4728,6 +5197,9 @@
       <c r="C145" t="s">
         <v>74</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O145">
         <v>0.983</v>
       </c>
@@ -4757,6 +5229,9 @@
       <c r="C146" t="s">
         <v>75</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O146">
         <v>0.753</v>
       </c>
@@ -4786,6 +5261,9 @@
       <c r="C147" t="s">
         <v>71</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O147">
         <v>0.819</v>
       </c>
@@ -4815,6 +5293,9 @@
       <c r="C148" t="s">
         <v>76</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O148">
         <v>0.468</v>
       </c>
@@ -4844,6 +5325,9 @@
       <c r="C149" t="s">
         <v>77</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O149">
         <v>0.755</v>
       </c>
@@ -4873,6 +5357,9 @@
       <c r="C150" t="s">
         <v>72</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O150">
         <v>0.991</v>
       </c>
@@ -4902,6 +5389,9 @@
       <c r="C151" t="s">
         <v>73</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S151">
         <v>0.594</v>
       </c>
@@ -4919,6 +5409,9 @@
       <c r="C152" t="s">
         <v>70</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J152">
         <v>0.647</v>
       </c>
@@ -4939,6 +5432,9 @@
       <c r="C153" t="s">
         <v>71</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J153">
         <v>0.981</v>
       </c>
@@ -4959,6 +5455,9 @@
       <c r="C154" t="s">
         <v>76</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J154">
         <v>0.514</v>
       </c>
@@ -4979,6 +5478,9 @@
       <c r="C155" t="s">
         <v>72</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J155">
         <v>0.663</v>
       </c>
@@ -4999,6 +5501,9 @@
       <c r="C156" t="s">
         <v>78</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J156">
         <v>0.981</v>
       </c>
@@ -5019,6 +5524,9 @@
       <c r="C157" t="s">
         <v>74</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O157">
         <v>0.865</v>
       </c>
@@ -5048,6 +5556,9 @@
       <c r="C158" t="s">
         <v>70</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E158">
         <v>0.829</v>
       </c>
@@ -5092,6 +5603,9 @@
       <c r="C159" t="s">
         <v>75</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O159">
         <v>0.57</v>
       </c>
@@ -5121,6 +5635,9 @@
       <c r="C160" t="s">
         <v>71</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E160">
         <v>0.964</v>
       </c>
@@ -5180,6 +5697,9 @@
       <c r="C161" t="s">
         <v>76</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J161">
         <v>0.491</v>
       </c>
@@ -5224,6 +5744,9 @@
       <c r="C162" t="s">
         <v>77</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O162">
         <v>0.5610000000000001</v>
       </c>
@@ -5253,6 +5776,9 @@
       <c r="C163" t="s">
         <v>72</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E163">
         <v>0.605</v>
       </c>
@@ -5312,6 +5838,9 @@
       <c r="C164" t="s">
         <v>73</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E164">
         <v>0.976</v>
       </c>
@@ -5341,6 +5870,9 @@
       <c r="C165" t="s">
         <v>78</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J165">
         <v>1</v>
       </c>
@@ -5367,6 +5899,9 @@
       <c r="C166" t="s">
         <v>70</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E166">
         <v>0.64</v>
       </c>
@@ -5396,6 +5931,9 @@
       <c r="C167" t="s">
         <v>71</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E167">
         <v>0.604</v>
       </c>
@@ -5425,6 +5963,9 @@
       <c r="C168" t="s">
         <v>72</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E168">
         <v>0.957</v>
       </c>
@@ -5454,6 +5995,9 @@
       <c r="C169" t="s">
         <v>73</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I169">
         <v>0.787</v>
       </c>
@@ -5471,6 +6015,9 @@
       <c r="C170" t="s">
         <v>74</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O170">
         <v>0.859</v>
       </c>
@@ -5500,6 +6047,9 @@
       <c r="C171" t="s">
         <v>70</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E171">
         <v>0.833</v>
       </c>
@@ -5544,6 +6094,9 @@
       <c r="C172" t="s">
         <v>75</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O172">
         <v>0.58</v>
       </c>
@@ -5573,6 +6126,9 @@
       <c r="C173" t="s">
         <v>71</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E173">
         <v>0.964</v>
       </c>
@@ -5632,6 +6188,9 @@
       <c r="C174" t="s">
         <v>76</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J174">
         <v>0.493</v>
       </c>
@@ -5676,6 +6235,9 @@
       <c r="C175" t="s">
         <v>77</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O175">
         <v>0.572</v>
       </c>
@@ -5705,6 +6267,9 @@
       <c r="C176" t="s">
         <v>72</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E176">
         <v>0.615</v>
       </c>
@@ -5764,6 +6329,9 @@
       <c r="C177" t="s">
         <v>73</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I177">
         <v>0.873</v>
       </c>
@@ -5790,6 +6358,9 @@
       <c r="C178" t="s">
         <v>78</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J178">
         <v>0.991</v>
       </c>
@@ -5816,6 +6387,9 @@
       <c r="C179" t="s">
         <v>70</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J179">
         <v>0.636</v>
       </c>
@@ -5845,6 +6419,9 @@
       <c r="C180" t="s">
         <v>71</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J180">
         <v>0.677</v>
       </c>
@@ -5874,6 +6451,9 @@
       <c r="C181" t="s">
         <v>76</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J181">
         <v>0.401</v>
       </c>
@@ -5903,6 +6483,9 @@
       <c r="C182" t="s">
         <v>72</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J182">
         <v>0.967</v>
       </c>
@@ -5932,6 +6515,9 @@
       <c r="C183" t="s">
         <v>73</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O183">
         <v>0.771</v>
       </c>
@@ -5946,6 +6532,9 @@
       <c r="C184" t="s">
         <v>78</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J184">
         <v>0.7</v>
       </c>
@@ -5972,6 +6561,9 @@
       <c r="C185" t="s">
         <v>74</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O185">
         <v>0.41</v>
       </c>
@@ -6001,6 +6593,9 @@
       <c r="C186" t="s">
         <v>70</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J186">
         <v>0.167</v>
       </c>
@@ -6030,6 +6625,9 @@
       <c r="C187" t="s">
         <v>75</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O187">
         <v>0.575</v>
       </c>
@@ -6059,6 +6657,9 @@
       <c r="C188" t="s">
         <v>71</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J188">
         <v>0.424</v>
       </c>
@@ -6103,6 +6704,9 @@
       <c r="C189" t="s">
         <v>76</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J189">
         <v>1</v>
       </c>
@@ -6147,6 +6751,9 @@
       <c r="C190" t="s">
         <v>77</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O190">
         <v>0.597</v>
       </c>
@@ -6176,6 +6783,9 @@
       <c r="C191" t="s">
         <v>72</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J191">
         <v>0.306</v>
       </c>
@@ -6220,6 +6830,9 @@
       <c r="C192" t="s">
         <v>73</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O192">
         <v>0.47</v>
       </c>
@@ -6240,6 +6853,9 @@
       <c r="C193" t="s">
         <v>78</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J193">
         <v>0.316</v>
       </c>
@@ -6266,6 +6882,9 @@
       <c r="C194" t="s">
         <v>70</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J194">
         <v>1</v>
       </c>
@@ -6295,6 +6914,9 @@
       <c r="C195" t="s">
         <v>71</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J195">
         <v>0.643</v>
       </c>
@@ -6324,6 +6946,9 @@
       <c r="C196" t="s">
         <v>76</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J196">
         <v>0.525</v>
       </c>
@@ -6353,6 +6978,9 @@
       <c r="C197" t="s">
         <v>72</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J197">
         <v>0.62</v>
       </c>
@@ -6382,6 +7010,9 @@
       <c r="C198" t="s">
         <v>73</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O198">
         <v>0.673</v>
       </c>
@@ -6396,6 +7027,9 @@
       <c r="C199" t="s">
         <v>78</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J199">
         <v>0.602</v>
       </c>
@@ -6422,6 +7056,9 @@
       <c r="C200" t="s">
         <v>70</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E200">
         <v>0.831</v>
       </c>
@@ -6466,6 +7103,9 @@
       <c r="C201" t="s">
         <v>71</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E201">
         <v>0.968</v>
       </c>
@@ -6510,6 +7150,9 @@
       <c r="C202" t="s">
         <v>76</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J202">
         <v>0.505</v>
       </c>
@@ -6539,6 +7182,9 @@
       <c r="C203" t="s">
         <v>72</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E203">
         <v>0.618</v>
       </c>
@@ -6583,6 +7229,9 @@
       <c r="C204" t="s">
         <v>73</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E204">
         <v>0.981</v>
       </c>
@@ -6606,6 +7255,9 @@
       <c r="C205" t="s">
         <v>78</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J205">
         <v>0.982</v>
       </c>
@@ -6632,6 +7284,9 @@
       <c r="C206" t="s">
         <v>74</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O206">
         <v>0.806</v>
       </c>
@@ -6661,6 +7316,9 @@
       <c r="C207" t="s">
         <v>70</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I207">
         <v>0.7</v>
       </c>
@@ -6693,6 +7351,9 @@
       <c r="C208" t="s">
         <v>75</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O208">
         <v>0.514</v>
       </c>
@@ -6722,6 +7383,9 @@
       <c r="C209" t="s">
         <v>71</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I209">
         <v>0.871</v>
       </c>
@@ -6769,6 +7433,9 @@
       <c r="C210" t="s">
         <v>76</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J210">
         <v>0.377</v>
       </c>
@@ -6813,6 +7480,9 @@
       <c r="C211" t="s">
         <v>77</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O211">
         <v>0.491</v>
       </c>
@@ -6842,6 +7512,9 @@
       <c r="C212" t="s">
         <v>72</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I212">
         <v>0.829</v>
       </c>
@@ -6889,6 +7562,9 @@
       <c r="C213" t="s">
         <v>73</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I213">
         <v>1</v>
       </c>
@@ -6915,6 +7591,9 @@
       <c r="C214" t="s">
         <v>78</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J214">
         <v>1</v>
       </c>
@@ -6941,6 +7620,9 @@
       <c r="C215" t="s">
         <v>74</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="R215">
         <v>0.792</v>
       </c>
@@ -6961,6 +7643,9 @@
       <c r="C216" t="s">
         <v>70</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E216">
         <v>0.828</v>
       </c>
@@ -7002,6 +7687,9 @@
       <c r="C217" t="s">
         <v>75</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="R217">
         <v>0.589</v>
       </c>
@@ -7022,6 +7710,9 @@
       <c r="C218" t="s">
         <v>71</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E218">
         <v>0.966</v>
       </c>
@@ -7075,6 +7766,9 @@
       <c r="C219" t="s">
         <v>76</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J219">
         <v>0.47</v>
       </c>
@@ -7113,6 +7807,9 @@
       <c r="C220" t="s">
         <v>77</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="R220">
         <v>0.5580000000000001</v>
       </c>
@@ -7133,6 +7830,9 @@
       <c r="C221" t="s">
         <v>72</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E221">
         <v>0.592</v>
       </c>
@@ -7186,6 +7886,9 @@
       <c r="C222" t="s">
         <v>73</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E222">
         <v>0.976</v>
       </c>
@@ -7215,6 +7918,9 @@
       <c r="C223" t="s">
         <v>78</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J223">
         <v>0.966</v>
       </c>
@@ -7241,6 +7947,9 @@
       <c r="C224" t="s">
         <v>70</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E224">
         <v>0.695</v>
       </c>
@@ -7270,6 +7979,9 @@
       <c r="C225" t="s">
         <v>71</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E225">
         <v>0.543</v>
       </c>
@@ -7299,6 +8011,9 @@
       <c r="C226" t="s">
         <v>72</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E226">
         <v>0.985</v>
       </c>
@@ -7328,6 +8043,9 @@
       <c r="C227" t="s">
         <v>73</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I227">
         <v>0.9429999999999999</v>
       </c>
@@ -7345,6 +8063,9 @@
       <c r="C228" t="s">
         <v>74</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O228">
         <v>0.86</v>
       </c>
@@ -7374,6 +8095,9 @@
       <c r="C229" t="s">
         <v>75</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O229">
         <v>0.575</v>
       </c>
@@ -7403,6 +8127,9 @@
       <c r="C230" t="s">
         <v>71</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O230">
         <v>0.995</v>
       </c>
@@ -7432,6 +8159,9 @@
       <c r="C231" t="s">
         <v>76</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O231">
         <v>0.373</v>
       </c>
@@ -7461,6 +8191,9 @@
       <c r="C232" t="s">
         <v>77</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O232">
         <v>0.5659999999999999</v>
       </c>
@@ -7490,6 +8223,9 @@
       <c r="C233" t="s">
         <v>72</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O233">
         <v>0.8179999999999999</v>
       </c>
@@ -7519,6 +8255,9 @@
       <c r="C234" t="s">
         <v>73</v>
       </c>
+      <c r="D234" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S234">
         <v>0.523</v>
       </c>
@@ -7536,6 +8275,9 @@
       <c r="C235" t="s">
         <v>70</v>
       </c>
+      <c r="D235" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E235">
         <v>0.854</v>
       </c>
@@ -7565,6 +8307,9 @@
       <c r="C236" t="s">
         <v>71</v>
       </c>
+      <c r="D236" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E236">
         <v>0.916</v>
       </c>
@@ -7594,6 +8339,9 @@
       <c r="C237" t="s">
         <v>76</v>
       </c>
+      <c r="D237" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J237">
         <v>0.462</v>
       </c>
@@ -7608,6 +8356,9 @@
       <c r="C238" t="s">
         <v>72</v>
       </c>
+      <c r="D238" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E238">
         <v>0.585</v>
       </c>
@@ -7637,6 +8388,9 @@
       <c r="C239" t="s">
         <v>73</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E239">
         <v>0.981</v>
       </c>
@@ -7657,6 +8411,9 @@
       <c r="C240" t="s">
         <v>78</v>
       </c>
+      <c r="D240" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J240">
         <v>0.978</v>
       </c>
@@ -7671,6 +8428,9 @@
       <c r="C241" t="s">
         <v>74</v>
       </c>
+      <c r="D241" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O241">
         <v>1</v>
       </c>
@@ -7700,6 +8460,9 @@
       <c r="C242" t="s">
         <v>75</v>
       </c>
+      <c r="D242" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O242">
         <v>0.709</v>
       </c>
@@ -7729,6 +8492,9 @@
       <c r="C243" t="s">
         <v>71</v>
       </c>
+      <c r="D243" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O243">
         <v>0.836</v>
       </c>
@@ -7758,6 +8524,9 @@
       <c r="C244" t="s">
         <v>76</v>
       </c>
+      <c r="D244" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O244">
         <v>0.44</v>
       </c>
@@ -7787,6 +8556,9 @@
       <c r="C245" t="s">
         <v>77</v>
       </c>
+      <c r="D245" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O245">
         <v>0.709</v>
       </c>
@@ -7816,6 +8588,9 @@
       <c r="C246" t="s">
         <v>72</v>
       </c>
+      <c r="D246" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O246">
         <v>0.977</v>
       </c>
@@ -7845,6 +8620,9 @@
       <c r="C247" t="s">
         <v>73</v>
       </c>
+      <c r="D247" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S247">
         <v>0.505</v>
       </c>
@@ -7862,6 +8640,9 @@
       <c r="C248" t="s">
         <v>70</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E248">
         <v>0.89</v>
       </c>
@@ -7891,6 +8672,9 @@
       <c r="C249" t="s">
         <v>71</v>
       </c>
+      <c r="D249" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E249">
         <v>0.924</v>
       </c>
@@ -7920,6 +8704,9 @@
       <c r="C250" t="s">
         <v>72</v>
       </c>
+      <c r="D250" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E250">
         <v>0.647</v>
       </c>
@@ -7949,6 +8736,9 @@
       <c r="C251" t="s">
         <v>73</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E251">
         <v>0.981</v>
       </c>
@@ -7969,6 +8759,9 @@
       <c r="C252" t="s">
         <v>70</v>
       </c>
+      <c r="D252" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E252">
         <v>0.754</v>
       </c>
@@ -7998,6 +8791,9 @@
       <c r="C253" t="s">
         <v>71</v>
       </c>
+      <c r="D253" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E253">
         <v>0.643</v>
       </c>
@@ -8027,6 +8823,9 @@
       <c r="C254" t="s">
         <v>72</v>
       </c>
+      <c r="D254" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E254">
         <v>0.981</v>
       </c>
@@ -8056,6 +8855,9 @@
       <c r="C255" t="s">
         <v>73</v>
       </c>
+      <c r="D255" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I255">
         <v>0.8159999999999999</v>
       </c>
@@ -8073,6 +8875,9 @@
       <c r="C256" t="s">
         <v>74</v>
       </c>
+      <c r="D256" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O256">
         <v>0.862</v>
       </c>
@@ -8102,6 +8907,9 @@
       <c r="C257" t="s">
         <v>70</v>
       </c>
+      <c r="D257" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J257">
         <v>0.514</v>
       </c>
@@ -8131,6 +8939,9 @@
       <c r="C258" t="s">
         <v>75</v>
       </c>
+      <c r="D258" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O258">
         <v>0.597</v>
       </c>
@@ -8160,6 +8971,9 @@
       <c r="C259" t="s">
         <v>71</v>
       </c>
+      <c r="D259" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J259">
         <v>0.985</v>
       </c>
@@ -8204,6 +9018,9 @@
       <c r="C260" t="s">
         <v>76</v>
       </c>
+      <c r="D260" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J260">
         <v>0.382</v>
       </c>
@@ -8248,6 +9065,9 @@
       <c r="C261" t="s">
         <v>77</v>
       </c>
+      <c r="D261" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O261">
         <v>0.591</v>
       </c>
@@ -8277,6 +9097,9 @@
       <c r="C262" t="s">
         <v>72</v>
       </c>
+      <c r="D262" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J262">
         <v>0.708</v>
       </c>
@@ -8321,6 +9144,9 @@
       <c r="C263" t="s">
         <v>73</v>
       </c>
+      <c r="D263" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O263">
         <v>0.977</v>
       </c>
@@ -8341,6 +9167,9 @@
       <c r="C264" t="s">
         <v>78</v>
       </c>
+      <c r="D264" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J264">
         <v>1</v>
       </c>
@@ -8367,6 +9196,9 @@
       <c r="C265" t="s">
         <v>74</v>
       </c>
+      <c r="D265" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O265">
         <v>0.716</v>
       </c>
@@ -8396,6 +9228,9 @@
       <c r="C266" t="s">
         <v>75</v>
       </c>
+      <c r="D266" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O266">
         <v>1</v>
       </c>
@@ -8425,6 +9260,9 @@
       <c r="C267" t="s">
         <v>71</v>
       </c>
+      <c r="D267" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O267">
         <v>0.5679999999999999</v>
       </c>
@@ -8454,6 +9292,9 @@
       <c r="C268" t="s">
         <v>76</v>
       </c>
+      <c r="D268" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O268">
         <v>0.59</v>
       </c>
@@ -8483,6 +9324,9 @@
       <c r="C269" t="s">
         <v>77</v>
       </c>
+      <c r="D269" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O269">
         <v>1</v>
       </c>
@@ -8512,6 +9356,9 @@
       <c r="C270" t="s">
         <v>72</v>
       </c>
+      <c r="D270" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O270">
         <v>0.741</v>
       </c>
@@ -8541,6 +9388,9 @@
       <c r="C271" t="s">
         <v>73</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S271">
         <v>0.548</v>
       </c>
@@ -8558,6 +9408,9 @@
       <c r="C272" t="s">
         <v>74</v>
       </c>
+      <c r="D272" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O272">
         <v>0.972</v>
       </c>
@@ -8587,6 +9440,9 @@
       <c r="C273" t="s">
         <v>75</v>
       </c>
+      <c r="D273" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O273">
         <v>0.727</v>
       </c>
@@ -8616,6 +9472,9 @@
       <c r="C274" t="s">
         <v>71</v>
       </c>
+      <c r="D274" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O274">
         <v>0.8149999999999999</v>
       </c>
@@ -8645,6 +9504,9 @@
       <c r="C275" t="s">
         <v>76</v>
       </c>
+      <c r="D275" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O275">
         <v>0.465</v>
       </c>
@@ -8674,6 +9536,9 @@
       <c r="C276" t="s">
         <v>77</v>
       </c>
+      <c r="D276" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O276">
         <v>0.727</v>
       </c>
@@ -8703,6 +9568,9 @@
       <c r="C277" t="s">
         <v>72</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="O277">
         <v>0.992</v>
       </c>
@@ -8732,6 +9600,9 @@
       <c r="C278" t="s">
         <v>73</v>
       </c>
+      <c r="D278" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S278">
         <v>0.539</v>
       </c>
@@ -8749,6 +9620,9 @@
       <c r="C279" t="s">
         <v>70</v>
       </c>
+      <c r="D279" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G279">
         <v>0.929</v>
       </c>
@@ -8772,6 +9646,9 @@
       <c r="C280" t="s">
         <v>71</v>
       </c>
+      <c r="D280" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G280">
         <v>0.8179999999999999</v>
       </c>
@@ -8795,6 +9672,9 @@
       <c r="C281" t="s">
         <v>72</v>
       </c>
+      <c r="D281" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G281">
         <v>0.787</v>
       </c>
@@ -8818,6 +9698,9 @@
       <c r="C282" t="s">
         <v>73</v>
       </c>
+      <c r="D282" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I282">
         <v>0.509</v>
       </c>
@@ -8835,6 +9718,9 @@
       <c r="C283" t="s">
         <v>70</v>
       </c>
+      <c r="D283" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E283">
         <v>0.655</v>
       </c>
@@ -8879,6 +9765,9 @@
       <c r="C284" t="s">
         <v>71</v>
       </c>
+      <c r="D284" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E284">
         <v>0.477</v>
       </c>
@@ -8923,6 +9812,9 @@
       <c r="C285" t="s">
         <v>76</v>
       </c>
+      <c r="D285" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J285">
         <v>0.407</v>
       </c>
@@ -8952,6 +9844,9 @@
       <c r="C286" t="s">
         <v>72</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E286">
         <v>0.977</v>
       </c>
@@ -8996,6 +9891,9 @@
       <c r="C287" t="s">
         <v>73</v>
       </c>
+      <c r="D287" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I287">
         <v>0.783</v>
       </c>
@@ -9016,6 +9914,9 @@
       <c r="C288" t="s">
         <v>78</v>
       </c>
+      <c r="D288" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J288">
         <v>0.694</v>
       </c>
@@ -9042,6 +9943,9 @@
       <c r="C289" t="s">
         <v>70</v>
       </c>
+      <c r="D289" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K289">
         <v>0.612</v>
       </c>
@@ -9068,6 +9972,9 @@
       <c r="C290" t="s">
         <v>71</v>
       </c>
+      <c r="D290" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K290">
         <v>0.981</v>
       </c>
@@ -9094,6 +10001,9 @@
       <c r="C291" t="s">
         <v>76</v>
       </c>
+      <c r="D291" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="K291">
         <v>0.587</v>
       </c>
@@ -9120,6 +10030,9 @@
       <c r="C292" t="s">
         <v>72</v>
       </c>
+      <c r="D292" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K292">
         <v>0.731</v>
       </c>
@@ -9146,6 +10059,9 @@
       <c r="C293" t="s">
         <v>73</v>
       </c>
+      <c r="D293" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O293">
         <v>0.958</v>
       </c>
@@ -9160,6 +10076,9 @@
       <c r="C294" t="s">
         <v>78</v>
       </c>
+      <c r="D294" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K294">
         <v>0.979</v>
       </c>
@@ -9183,6 +10102,9 @@
       <c r="C295" t="s">
         <v>74</v>
       </c>
+      <c r="D295" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O295">
         <v>0.45</v>
       </c>
@@ -9212,6 +10134,9 @@
       <c r="C296" t="s">
         <v>70</v>
       </c>
+      <c r="D296" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J296">
         <v>0.582</v>
       </c>
@@ -9226,6 +10151,9 @@
       <c r="C297" t="s">
         <v>75</v>
       </c>
+      <c r="D297" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O297">
         <v>0.572</v>
       </c>
@@ -9255,6 +10183,9 @@
       <c r="C298" t="s">
         <v>71</v>
       </c>
+      <c r="D298" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J298">
         <v>0.501</v>
       </c>
@@ -9287,6 +10218,9 @@
       <c r="C299" t="s">
         <v>76</v>
       </c>
+      <c r="D299" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J299">
         <v>1</v>
       </c>
@@ -9319,6 +10253,9 @@
       <c r="C300" t="s">
         <v>77</v>
       </c>
+      <c r="D300" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O300">
         <v>0.592</v>
       </c>
@@ -9348,6 +10285,9 @@
       <c r="C301" t="s">
         <v>72</v>
       </c>
+      <c r="D301" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J301">
         <v>0.433</v>
       </c>
@@ -9380,6 +10320,9 @@
       <c r="C302" t="s">
         <v>73</v>
       </c>
+      <c r="D302" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="S302">
         <v>0.971</v>
       </c>
@@ -9397,6 +10340,9 @@
       <c r="C303" t="s">
         <v>78</v>
       </c>
+      <c r="D303" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J303">
         <v>0.393</v>
       </c>
@@ -9411,6 +10357,9 @@
       <c r="C304" t="s">
         <v>70</v>
       </c>
+      <c r="D304" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E304">
         <v>0.8129999999999999</v>
       </c>
@@ -9440,6 +10389,9 @@
       <c r="C305" t="s">
         <v>71</v>
       </c>
+      <c r="D305" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E305">
         <v>0.957</v>
       </c>
@@ -9469,6 +10421,9 @@
       <c r="C306" t="s">
         <v>72</v>
       </c>
+      <c r="D306" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E306">
         <v>0.569</v>
       </c>
@@ -9498,6 +10453,9 @@
       <c r="C307" t="s">
         <v>73</v>
       </c>
+      <c r="D307" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E307">
         <v>0.981</v>
       </c>
@@ -9518,6 +10476,9 @@
       <c r="C308" t="s">
         <v>74</v>
       </c>
+      <c r="D308" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O308">
         <v>0.853</v>
       </c>
@@ -9547,6 +10508,9 @@
       <c r="C309" t="s">
         <v>70</v>
       </c>
+      <c r="D309" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J309">
         <v>0.653</v>
       </c>
@@ -9576,6 +10540,9 @@
       <c r="C310" t="s">
         <v>75</v>
       </c>
+      <c r="D310" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O310">
         <v>0.59</v>
       </c>
@@ -9605,6 +10572,9 @@
       <c r="C311" t="s">
         <v>71</v>
       </c>
+      <c r="D311" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J311">
         <v>0.986</v>
       </c>
@@ -9649,6 +10619,9 @@
       <c r="C312" t="s">
         <v>76</v>
       </c>
+      <c r="D312" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J312">
         <v>0.516</v>
       </c>
@@ -9693,6 +10666,9 @@
       <c r="C313" t="s">
         <v>77</v>
       </c>
+      <c r="D313" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O313">
         <v>0.582</v>
       </c>
@@ -9722,6 +10698,9 @@
       <c r="C314" t="s">
         <v>72</v>
       </c>
+      <c r="D314" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J314">
         <v>0.665</v>
       </c>
@@ -9766,6 +10745,9 @@
       <c r="C315" t="s">
         <v>73</v>
       </c>
+      <c r="D315" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O315">
         <v>0.981</v>
       </c>
@@ -9786,6 +10768,9 @@
       <c r="C316" t="s">
         <v>78</v>
       </c>
+      <c r="D316" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J316">
         <v>1</v>
       </c>
@@ -9812,6 +10797,9 @@
       <c r="C317" t="s">
         <v>70</v>
       </c>
+      <c r="D317" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J317">
         <v>0.65</v>
       </c>
@@ -9841,6 +10829,9 @@
       <c r="C318" t="s">
         <v>71</v>
       </c>
+      <c r="D318" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J318">
         <v>0.98</v>
       </c>
@@ -9870,6 +10861,9 @@
       <c r="C319" t="s">
         <v>76</v>
       </c>
+      <c r="D319" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J319">
         <v>0.493</v>
       </c>
@@ -9899,6 +10893,9 @@
       <c r="C320" t="s">
         <v>72</v>
       </c>
+      <c r="D320" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J320">
         <v>0.673</v>
       </c>
@@ -9928,6 +10925,9 @@
       <c r="C321" t="s">
         <v>73</v>
       </c>
+      <c r="D321" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O321">
         <v>0.978</v>
       </c>
@@ -9942,6 +10942,9 @@
       <c r="C322" t="s">
         <v>78</v>
       </c>
+      <c r="D322" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J322">
         <v>0.991</v>
       </c>
@@ -9959,6 +10962,329 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>